--- a/xls/strikeConfig.xlsx
+++ b/xls/strikeConfig.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Server\kbengine\fbgServer\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="14880" yWindow="30" windowWidth="27765" windowHeight="13620"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -95,10 +100,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>health[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>needCount[.][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -111,26 +112,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>health[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0,0</t>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,2,2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill[.][funcTupleInt]</t>
+    <t>skill[.][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,14 +178,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -218,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -260,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,7 +514,7 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -530,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
@@ -539,10 +546,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -560,10 +567,10 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -605,8 +612,8 @@
       <c r="A3" s="1">
         <v>101</v>
       </c>
-      <c r="B3" s="1">
-        <v>20</v>
+      <c r="B3" s="3">
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
@@ -638,16 +645,16 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
+      <c r="M3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>102</v>
       </c>
-      <c r="B4" s="1">
-        <v>40</v>
+      <c r="B4" s="3">
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -679,16 +686,16 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
+      <c r="M4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>103</v>
       </c>
-      <c r="B5" s="1">
-        <v>60</v>
+      <c r="B5" s="3">
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>246</v>
@@ -720,16 +727,16 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>25</v>
+      <c r="M5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>104</v>
       </c>
-      <c r="B6" s="1">
-        <v>80</v>
+      <c r="B6" s="3">
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>23</v>
@@ -761,16 +768,16 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>25</v>
+      <c r="M6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>105</v>
       </c>
-      <c r="B7" s="1">
-        <v>100</v>
+      <c r="B7" s="3">
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>26</v>
@@ -802,16 +809,16 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>25</v>
+      <c r="M7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>106</v>
       </c>
-      <c r="B8" s="1">
-        <v>120</v>
+      <c r="B8" s="3">
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>28</v>
@@ -843,16 +850,16 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>25</v>
+      <c r="M8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>107</v>
       </c>
-      <c r="B9" s="1">
-        <v>140</v>
+      <c r="B9" s="3">
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>380</v>
@@ -884,16 +891,16 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>25</v>
+      <c r="M9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>108</v>
       </c>
-      <c r="B10" s="1">
-        <v>160</v>
+      <c r="B10" s="3">
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>32</v>
@@ -925,16 +932,16 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>25</v>
+      <c r="M10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>109</v>
       </c>
-      <c r="B11" s="1">
-        <v>180</v>
+      <c r="B11" s="3">
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>34</v>
@@ -966,16 +973,16 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>25</v>
+      <c r="M11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>110</v>
       </c>
-      <c r="B12" s="1">
-        <v>200</v>
+      <c r="B12" s="3">
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>36</v>
@@ -1007,16 +1014,16 @@
       <c r="L12" s="1">
         <v>0.03</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>25</v>
+      <c r="M12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>111</v>
       </c>
-      <c r="B13" s="1">
-        <v>220</v>
+      <c r="B13" s="3">
+        <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>39</v>
@@ -1048,16 +1055,16 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>25</v>
+      <c r="M13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>112</v>
       </c>
-      <c r="B14" s="1">
-        <v>240</v>
+      <c r="B14" s="3">
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>43</v>
@@ -1089,16 +1096,16 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>25</v>
+      <c r="M14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>113</v>
       </c>
-      <c r="B15" s="1">
-        <v>260</v>
+      <c r="B15" s="3">
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>47</v>
@@ -1130,16 +1137,16 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>25</v>
+      <c r="M15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>114</v>
       </c>
-      <c r="B16" s="1">
-        <v>280</v>
+      <c r="B16" s="3">
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>52</v>
@@ -1171,16 +1178,16 @@
       <c r="L16" s="1">
         <v>0.05</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>25</v>
+      <c r="M16" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>115</v>
       </c>
-      <c r="B17" s="1">
-        <v>300</v>
+      <c r="B17" s="3">
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>56</v>
@@ -1212,16 +1219,16 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>25</v>
+      <c r="M17" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>116</v>
       </c>
-      <c r="B18" s="1">
-        <v>320</v>
+      <c r="B18" s="3">
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <v>60</v>
@@ -1253,16 +1260,16 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>25</v>
+      <c r="M18" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>117</v>
       </c>
-      <c r="B19" s="1">
-        <v>340</v>
+      <c r="B19" s="3">
+        <v>33</v>
       </c>
       <c r="C19" s="1">
         <v>65</v>
@@ -1294,16 +1301,16 @@
       <c r="L19" s="1">
         <v>0</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>26</v>
+      <c r="M19" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>118</v>
       </c>
-      <c r="B20" s="1">
-        <v>360</v>
+      <c r="B20" s="3">
+        <v>35</v>
       </c>
       <c r="C20" s="1">
         <v>69</v>
@@ -1335,16 +1342,16 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>25</v>
+      <c r="M20" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>119</v>
       </c>
-      <c r="B21" s="1">
-        <v>380</v>
+      <c r="B21" s="3">
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>73</v>
@@ -1376,16 +1383,16 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>25</v>
+      <c r="M21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>120</v>
       </c>
-      <c r="B22" s="1">
-        <v>400</v>
+      <c r="B22" s="3">
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>87</v>
@@ -1417,16 +1424,16 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>27</v>
+      <c r="M22" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>201</v>
       </c>
-      <c r="B23" s="1">
-        <v>10</v>
+      <c r="B23" s="3">
+        <v>3</v>
       </c>
       <c r="C23" s="1">
         <v>37</v>
@@ -1458,16 +1465,16 @@
       <c r="L23" s="1">
         <v>0</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>25</v>
+      <c r="M23" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>202</v>
       </c>
-      <c r="B24" s="1">
-        <v>20</v>
+      <c r="B24" s="3">
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>50</v>
@@ -1499,16 +1506,16 @@
       <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>25</v>
+      <c r="M24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>203</v>
       </c>
-      <c r="B25" s="1">
-        <v>30</v>
+      <c r="B25" s="3">
+        <v>7</v>
       </c>
       <c r="C25" s="1">
         <v>288</v>
@@ -1540,16 +1547,16 @@
       <c r="L25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>25</v>
+      <c r="M25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>204</v>
       </c>
-      <c r="B26" s="1">
-        <v>40</v>
+      <c r="B26" s="3">
+        <v>10</v>
       </c>
       <c r="C26" s="1">
         <v>69</v>
@@ -1581,16 +1588,16 @@
       <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>25</v>
+      <c r="M26" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>205</v>
       </c>
-      <c r="B27" s="1">
-        <v>50</v>
+      <c r="B27" s="3">
+        <v>13</v>
       </c>
       <c r="C27" s="1">
         <v>75</v>
@@ -1622,16 +1629,16 @@
       <c r="L27" s="1">
         <v>0</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>25</v>
+      <c r="M27" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>206</v>
       </c>
-      <c r="B28" s="1">
-        <v>60</v>
+      <c r="B28" s="3">
+        <v>16</v>
       </c>
       <c r="C28" s="1">
         <v>82</v>
@@ -1663,16 +1670,16 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>25</v>
+      <c r="M28" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>207</v>
       </c>
-      <c r="B29" s="1">
-        <v>70</v>
+      <c r="B29" s="3">
+        <v>20</v>
       </c>
       <c r="C29" s="1">
         <v>438</v>
@@ -1704,16 +1711,16 @@
       <c r="L29" s="1">
         <v>0</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>25</v>
+      <c r="M29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>208</v>
       </c>
-      <c r="B30" s="1">
-        <v>80</v>
+      <c r="B30" s="3">
+        <v>23</v>
       </c>
       <c r="C30" s="1">
         <v>94</v>
@@ -1745,16 +1752,16 @@
       <c r="L30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>25</v>
+      <c r="M30" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>209</v>
       </c>
-      <c r="B31" s="1">
-        <v>90</v>
+      <c r="B31" s="3">
+        <v>26</v>
       </c>
       <c r="C31" s="1">
         <v>101</v>
@@ -1786,16 +1793,16 @@
       <c r="L31" s="1">
         <v>0</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>25</v>
+      <c r="M31" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>210</v>
       </c>
-      <c r="B32" s="1">
-        <v>100</v>
+      <c r="B32" s="3">
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>107</v>
@@ -1827,16 +1834,16 @@
       <c r="L32" s="1">
         <v>0.03</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>25</v>
+      <c r="M32" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>211</v>
       </c>
-      <c r="B33" s="1">
-        <v>110</v>
+      <c r="B33" s="3">
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>113</v>
@@ -1868,16 +1875,16 @@
       <c r="L33" s="1">
         <v>0</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>25</v>
+      <c r="M33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>212</v>
       </c>
-      <c r="B34" s="1">
-        <v>120</v>
+      <c r="B34" s="3">
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <v>126</v>
@@ -1909,16 +1916,16 @@
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>25</v>
+      <c r="M34" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>213</v>
       </c>
-      <c r="B35" s="1">
-        <v>130</v>
+      <c r="B35" s="3">
+        <v>40</v>
       </c>
       <c r="C35" s="1">
         <v>139</v>
@@ -1950,16 +1957,16 @@
       <c r="L35" s="1">
         <v>0</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>25</v>
+      <c r="M35" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>214</v>
       </c>
-      <c r="B36" s="1">
-        <v>140</v>
+      <c r="B36" s="3">
+        <v>43</v>
       </c>
       <c r="C36" s="1">
         <v>151</v>
@@ -1991,16 +1998,16 @@
       <c r="L36" s="1">
         <v>0.05</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>25</v>
+      <c r="M36" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>215</v>
       </c>
-      <c r="B37" s="1">
-        <v>150</v>
+      <c r="B37" s="3">
+        <v>46</v>
       </c>
       <c r="C37" s="1">
         <v>164</v>
@@ -2032,16 +2039,16 @@
       <c r="L37" s="1">
         <v>0</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>25</v>
+      <c r="M37" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>216</v>
       </c>
-      <c r="B38" s="1">
-        <v>160</v>
+      <c r="B38" s="3">
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <v>177</v>
@@ -2073,16 +2080,16 @@
       <c r="L38" s="1">
         <v>0</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>25</v>
+      <c r="M38" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>217</v>
       </c>
-      <c r="B39" s="1">
-        <v>170</v>
+      <c r="B39" s="3">
+        <v>53</v>
       </c>
       <c r="C39" s="1">
         <v>189</v>
@@ -2114,16 +2121,16 @@
       <c r="L39" s="1">
         <v>0</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>26</v>
+      <c r="M39" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>218</v>
       </c>
-      <c r="B40" s="1">
-        <v>180</v>
+      <c r="B40" s="3">
+        <v>56</v>
       </c>
       <c r="C40" s="1">
         <v>202</v>
@@ -2155,16 +2162,16 @@
       <c r="L40" s="1">
         <v>0</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>25</v>
+      <c r="M40" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>219</v>
       </c>
-      <c r="B41" s="1">
-        <v>190</v>
+      <c r="B41" s="3">
+        <v>60</v>
       </c>
       <c r="C41" s="1">
         <v>215</v>
@@ -2196,16 +2203,16 @@
       <c r="L41" s="1">
         <v>0</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>25</v>
+      <c r="M41" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>220</v>
       </c>
-      <c r="B42" s="1">
-        <v>200</v>
+      <c r="B42" s="3">
+        <v>63</v>
       </c>
       <c r="C42" s="1">
         <v>253</v>
@@ -2237,15 +2244,15 @@
       <c r="L42" s="1">
         <v>0</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>27</v>
+      <c r="M42" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>301</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>5</v>
       </c>
       <c r="C43" s="1">
@@ -2278,15 +2285,15 @@
       <c r="L43" s="1">
         <v>0</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>25</v>
+      <c r="M43" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>302</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>9</v>
       </c>
       <c r="C44" s="1">
@@ -2319,15 +2326,15 @@
       <c r="L44" s="1">
         <v>0</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>25</v>
+      <c r="M44" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>303</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>14</v>
       </c>
       <c r="C45" s="1">
@@ -2360,15 +2367,15 @@
       <c r="L45" s="1">
         <v>0</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>25</v>
+      <c r="M45" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>304</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>18</v>
       </c>
       <c r="C46" s="1">
@@ -2401,15 +2408,15 @@
       <c r="L46" s="1">
         <v>0</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>25</v>
+      <c r="M46" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>305</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>23</v>
       </c>
       <c r="C47" s="1">
@@ -2442,15 +2449,15 @@
       <c r="L47" s="1">
         <v>0</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>25</v>
+      <c r="M47" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>306</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>27</v>
       </c>
       <c r="C48" s="1">
@@ -2483,15 +2490,15 @@
       <c r="L48" s="1">
         <v>0</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>25</v>
+      <c r="M48" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>307</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>32</v>
       </c>
       <c r="C49" s="1">
@@ -2524,15 +2531,15 @@
       <c r="L49" s="1">
         <v>0</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>25</v>
+      <c r="M49" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>308</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>36</v>
       </c>
       <c r="C50" s="1">
@@ -2565,15 +2572,15 @@
       <c r="L50" s="1">
         <v>0</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>25</v>
+      <c r="M50" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>309</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="3">
         <v>41</v>
       </c>
       <c r="C51" s="1">
@@ -2606,15 +2613,15 @@
       <c r="L51" s="1">
         <v>0</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>25</v>
+      <c r="M51" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>310</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>45</v>
       </c>
       <c r="C52" s="1">
@@ -2645,17 +2652,17 @@
         <v>0.03</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>25</v>
+        <v>0.03</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>311</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="3">
         <v>46</v>
       </c>
       <c r="C53" s="1">
@@ -2688,15 +2695,15 @@
       <c r="L53" s="1">
         <v>0</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>25</v>
+      <c r="M53" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>312</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="3">
         <v>50</v>
       </c>
       <c r="C54" s="1">
@@ -2729,15 +2736,15 @@
       <c r="L54" s="1">
         <v>0</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>25</v>
+      <c r="M54" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>313</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="3">
         <v>55</v>
       </c>
       <c r="C55" s="1">
@@ -2770,15 +2777,15 @@
       <c r="L55" s="1">
         <v>0</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>25</v>
+      <c r="M55" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>314</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="3">
         <v>59</v>
       </c>
       <c r="C56" s="1">
@@ -2809,17 +2816,17 @@
         <v>0.05</v>
       </c>
       <c r="L56" s="1">
-        <v>0</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>25</v>
+        <v>0.05</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>315</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="3">
         <v>63</v>
       </c>
       <c r="C57" s="1">
@@ -2852,15 +2859,15 @@
       <c r="L57" s="1">
         <v>0</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>25</v>
+      <c r="M57" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>316</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>68</v>
       </c>
       <c r="C58" s="1">
@@ -2893,15 +2900,15 @@
       <c r="L58" s="1">
         <v>0</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>25</v>
+      <c r="M58" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>317</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>72</v>
       </c>
       <c r="C59" s="1">
@@ -2934,15 +2941,15 @@
       <c r="L59" s="1">
         <v>0</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>26</v>
+      <c r="M59" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>318</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="3">
         <v>77</v>
       </c>
       <c r="C60" s="1">
@@ -2975,15 +2982,15 @@
       <c r="L60" s="1">
         <v>0</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>25</v>
+      <c r="M60" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>319</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="3">
         <v>81</v>
       </c>
       <c r="C61" s="1">
@@ -3016,15 +3023,15 @@
       <c r="L61" s="1">
         <v>0</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>25</v>
+      <c r="M61" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>320</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="3">
         <v>86</v>
       </c>
       <c r="C62" s="1">
@@ -3057,16 +3064,16 @@
       <c r="L62" s="1">
         <v>0</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>27</v>
+      <c r="M62" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>401</v>
       </c>
-      <c r="B63" s="1">
-        <v>3</v>
+      <c r="B63" s="3">
+        <v>10</v>
       </c>
       <c r="C63" s="1">
         <v>107</v>
@@ -3098,16 +3105,16 @@
       <c r="L63" s="1">
         <v>0</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>25</v>
+      <c r="M63" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>402</v>
       </c>
-      <c r="B64" s="1">
-        <v>5</v>
+      <c r="B64" s="3">
+        <v>20</v>
       </c>
       <c r="C64" s="1">
         <v>143</v>
@@ -3139,16 +3146,16 @@
       <c r="L64" s="1">
         <v>0</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>25</v>
+      <c r="M64" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>403</v>
       </c>
-      <c r="B65" s="1">
-        <v>7</v>
+      <c r="B65" s="3">
+        <v>30</v>
       </c>
       <c r="C65" s="1">
         <v>403</v>
@@ -3180,16 +3187,16 @@
       <c r="L65" s="1">
         <v>0</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>25</v>
+      <c r="M65" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>404</v>
       </c>
-      <c r="B66" s="1">
-        <v>10</v>
+      <c r="B66" s="3">
+        <v>40</v>
       </c>
       <c r="C66" s="1">
         <v>196</v>
@@ -3221,16 +3228,16 @@
       <c r="L66" s="1">
         <v>0</v>
       </c>
-      <c r="M66" s="1" t="s">
-        <v>25</v>
+      <c r="M66" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>405</v>
       </c>
-      <c r="B67" s="1">
-        <v>13</v>
+      <c r="B67" s="3">
+        <v>50</v>
       </c>
       <c r="C67" s="1">
         <v>214</v>
@@ -3262,16 +3269,16 @@
       <c r="L67" s="1">
         <v>0</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>25</v>
+      <c r="M67" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>406</v>
       </c>
-      <c r="B68" s="1">
-        <v>16</v>
+      <c r="B68" s="3">
+        <v>60</v>
       </c>
       <c r="C68" s="1">
         <v>232</v>
@@ -3303,16 +3310,16 @@
       <c r="L68" s="1">
         <v>0</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>25</v>
+      <c r="M68" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>407</v>
       </c>
-      <c r="B69" s="1">
-        <v>20</v>
+      <c r="B69" s="3">
+        <v>70</v>
       </c>
       <c r="C69" s="1">
         <v>600</v>
@@ -3344,16 +3351,16 @@
       <c r="L69" s="1">
         <v>0</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>25</v>
+      <c r="M69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>408</v>
       </c>
-      <c r="B70" s="1">
-        <v>23</v>
+      <c r="B70" s="3">
+        <v>80</v>
       </c>
       <c r="C70" s="1">
         <v>268</v>
@@ -3385,16 +3392,16 @@
       <c r="L70" s="1">
         <v>0</v>
       </c>
-      <c r="M70" s="1" t="s">
-        <v>25</v>
+      <c r="M70" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>409</v>
       </c>
-      <c r="B71" s="1">
-        <v>26</v>
+      <c r="B71" s="3">
+        <v>90</v>
       </c>
       <c r="C71" s="1">
         <v>286</v>
@@ -3426,16 +3433,16 @@
       <c r="L71" s="1">
         <v>0</v>
       </c>
-      <c r="M71" s="1" t="s">
-        <v>25</v>
+      <c r="M71" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>410</v>
       </c>
-      <c r="B72" s="1">
-        <v>30</v>
+      <c r="B72" s="3">
+        <v>100</v>
       </c>
       <c r="C72" s="1">
         <v>303</v>
@@ -3467,16 +3474,16 @@
       <c r="L72" s="1">
         <v>0.03</v>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>25</v>
+      <c r="M72" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>411</v>
       </c>
-      <c r="B73" s="1">
-        <v>33</v>
+      <c r="B73" s="3">
+        <v>110</v>
       </c>
       <c r="C73" s="1">
         <v>321</v>
@@ -3508,16 +3515,16 @@
       <c r="L73" s="1">
         <v>0</v>
       </c>
-      <c r="M73" s="1" t="s">
-        <v>25</v>
+      <c r="M73" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>412</v>
       </c>
-      <c r="B74" s="1">
-        <v>36</v>
+      <c r="B74" s="3">
+        <v>120</v>
       </c>
       <c r="C74" s="1">
         <v>357</v>
@@ -3549,16 +3556,16 @@
       <c r="L74" s="1">
         <v>0</v>
       </c>
-      <c r="M74" s="1" t="s">
-        <v>25</v>
+      <c r="M74" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>413</v>
       </c>
-      <c r="B75" s="1">
-        <v>40</v>
+      <c r="B75" s="3">
+        <v>130</v>
       </c>
       <c r="C75" s="1">
         <v>393</v>
@@ -3590,16 +3597,16 @@
       <c r="L75" s="1">
         <v>0</v>
       </c>
-      <c r="M75" s="1" t="s">
-        <v>25</v>
+      <c r="M75" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>414</v>
       </c>
-      <c r="B76" s="1">
-        <v>43</v>
+      <c r="B76" s="3">
+        <v>140</v>
       </c>
       <c r="C76" s="1">
         <v>429</v>
@@ -3631,16 +3638,16 @@
       <c r="L76" s="1">
         <v>0.05</v>
       </c>
-      <c r="M76" s="1" t="s">
-        <v>25</v>
+      <c r="M76" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>415</v>
       </c>
-      <c r="B77" s="1">
-        <v>46</v>
+      <c r="B77" s="3">
+        <v>150</v>
       </c>
       <c r="C77" s="1">
         <v>464</v>
@@ -3672,16 +3679,16 @@
       <c r="L77" s="1">
         <v>0</v>
       </c>
-      <c r="M77" s="1" t="s">
-        <v>25</v>
+      <c r="M77" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>416</v>
       </c>
-      <c r="B78" s="1">
-        <v>50</v>
+      <c r="B78" s="3">
+        <v>160</v>
       </c>
       <c r="C78" s="1">
         <v>500</v>
@@ -3713,16 +3720,16 @@
       <c r="L78" s="1">
         <v>0</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>25</v>
+      <c r="M78" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>417</v>
       </c>
-      <c r="B79" s="1">
-        <v>53</v>
+      <c r="B79" s="3">
+        <v>170</v>
       </c>
       <c r="C79" s="1">
         <v>536</v>
@@ -3754,16 +3761,16 @@
       <c r="L79" s="1">
         <v>0</v>
       </c>
-      <c r="M79" s="1" t="s">
-        <v>26</v>
+      <c r="M79" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>418</v>
       </c>
-      <c r="B80" s="1">
-        <v>56</v>
+      <c r="B80" s="3">
+        <v>180</v>
       </c>
       <c r="C80" s="1">
         <v>572</v>
@@ -3795,16 +3802,16 @@
       <c r="L80" s="1">
         <v>0</v>
       </c>
-      <c r="M80" s="1" t="s">
-        <v>25</v>
+      <c r="M80" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>419</v>
       </c>
-      <c r="B81" s="1">
-        <v>60</v>
+      <c r="B81" s="3">
+        <v>190</v>
       </c>
       <c r="C81" s="1">
         <v>607</v>
@@ -3836,16 +3843,16 @@
       <c r="L81" s="1">
         <v>0</v>
       </c>
-      <c r="M81" s="1" t="s">
-        <v>25</v>
+      <c r="M81" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>420</v>
       </c>
-      <c r="B82" s="1">
-        <v>63</v>
+      <c r="B82" s="3">
+        <v>200</v>
       </c>
       <c r="C82" s="1">
         <v>715</v>
@@ -3877,16 +3884,16 @@
       <c r="L82" s="1">
         <v>0</v>
       </c>
-      <c r="M82" s="1" t="s">
-        <v>27</v>
+      <c r="M82" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>501</v>
       </c>
-      <c r="B83" s="1">
-        <v>2</v>
+      <c r="B83" s="3">
+        <v>20</v>
       </c>
       <c r="C83" s="1">
         <v>375</v>
@@ -3918,16 +3925,16 @@
       <c r="L83" s="1">
         <v>0</v>
       </c>
-      <c r="M83" s="1" t="s">
-        <v>25</v>
+      <c r="M83" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>502</v>
       </c>
-      <c r="B84" s="1">
-        <v>3</v>
+      <c r="B84" s="3">
+        <v>40</v>
       </c>
       <c r="C84" s="1">
         <v>200</v>
@@ -3959,16 +3966,16 @@
       <c r="L84" s="1">
         <v>0</v>
       </c>
-      <c r="M84" s="1" t="s">
-        <v>25</v>
+      <c r="M84" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>503</v>
       </c>
-      <c r="B85" s="1">
-        <v>5</v>
+      <c r="B85" s="3">
+        <v>60</v>
       </c>
       <c r="C85" s="1">
         <v>600</v>
@@ -4000,16 +4007,16 @@
       <c r="L85" s="1">
         <v>0</v>
       </c>
-      <c r="M85" s="1" t="s">
-        <v>25</v>
+      <c r="M85" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>504</v>
       </c>
-      <c r="B86" s="1">
-        <v>7</v>
+      <c r="B86" s="3">
+        <v>80</v>
       </c>
       <c r="C86" s="1">
         <v>275</v>
@@ -4041,16 +4048,16 @@
       <c r="L86" s="1">
         <v>0</v>
       </c>
-      <c r="M86" s="1" t="s">
-        <v>25</v>
+      <c r="M86" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>505</v>
       </c>
-      <c r="B87" s="1">
-        <v>9</v>
+      <c r="B87" s="3">
+        <v>100</v>
       </c>
       <c r="C87" s="1">
         <v>950</v>
@@ -4082,16 +4089,16 @@
       <c r="L87" s="1">
         <v>0</v>
       </c>
-      <c r="M87" s="1" t="s">
-        <v>25</v>
+      <c r="M87" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>506</v>
       </c>
-      <c r="B88" s="1">
-        <v>11</v>
+      <c r="B88" s="3">
+        <v>120</v>
       </c>
       <c r="C88" s="1">
         <v>325</v>
@@ -4123,16 +4130,16 @@
       <c r="L88" s="1">
         <v>0</v>
       </c>
-      <c r="M88" s="1" t="s">
-        <v>25</v>
+      <c r="M88" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>507</v>
       </c>
-      <c r="B89" s="1">
-        <v>13</v>
+      <c r="B89" s="3">
+        <v>140</v>
       </c>
       <c r="C89" s="1">
         <v>350</v>
@@ -4164,16 +4171,16 @@
       <c r="L89" s="1">
         <v>0.03</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>25</v>
+      <c r="M89" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>508</v>
       </c>
-      <c r="B90" s="1">
-        <v>15</v>
+      <c r="B90" s="3">
+        <v>160</v>
       </c>
       <c r="C90" s="1">
         <v>375</v>
@@ -4205,16 +4212,16 @@
       <c r="L90" s="1">
         <v>0</v>
       </c>
-      <c r="M90" s="1" t="s">
-        <v>25</v>
+      <c r="M90" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>509</v>
       </c>
-      <c r="B91" s="1">
-        <v>17</v>
+      <c r="B91" s="3">
+        <v>180</v>
       </c>
       <c r="C91" s="1">
         <v>400</v>
@@ -4246,16 +4253,16 @@
       <c r="L91" s="1">
         <v>0.03</v>
       </c>
-      <c r="M91" s="1" t="s">
-        <v>25</v>
+      <c r="M91" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>510</v>
       </c>
-      <c r="B92" s="1">
-        <v>19</v>
+      <c r="B92" s="3">
+        <v>200</v>
       </c>
       <c r="C92" s="1">
         <v>425</v>
@@ -4287,16 +4294,16 @@
       <c r="L92" s="1">
         <v>0</v>
       </c>
-      <c r="M92" s="1" t="s">
-        <v>25</v>
+      <c r="M92" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>511</v>
       </c>
-      <c r="B93" s="1">
-        <v>21</v>
+      <c r="B93" s="3">
+        <v>220</v>
       </c>
       <c r="C93" s="1">
         <v>450</v>
@@ -4328,16 +4335,16 @@
       <c r="L93" s="1">
         <v>0.04</v>
       </c>
-      <c r="M93" s="1" t="s">
-        <v>25</v>
+      <c r="M93" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>512</v>
       </c>
-      <c r="B94" s="1">
-        <v>23</v>
+      <c r="B94" s="3">
+        <v>240</v>
       </c>
       <c r="C94" s="1">
         <v>500</v>
@@ -4369,16 +4376,16 @@
       <c r="L94" s="1">
         <v>0</v>
       </c>
-      <c r="M94" s="1" t="s">
-        <v>25</v>
+      <c r="M94" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>513</v>
       </c>
-      <c r="B95" s="1">
-        <v>25</v>
+      <c r="B95" s="3">
+        <v>260</v>
       </c>
       <c r="C95" s="1">
         <v>550</v>
@@ -4410,16 +4417,16 @@
       <c r="L95" s="1">
         <v>0.05</v>
       </c>
-      <c r="M95" s="1" t="s">
-        <v>25</v>
+      <c r="M95" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>514</v>
       </c>
-      <c r="B96" s="1">
-        <v>27</v>
+      <c r="B96" s="3">
+        <v>280</v>
       </c>
       <c r="C96" s="1">
         <v>600</v>
@@ -4451,16 +4458,16 @@
       <c r="L96" s="1">
         <v>0</v>
       </c>
-      <c r="M96" s="1" t="s">
-        <v>25</v>
+      <c r="M96" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>515</v>
       </c>
-      <c r="B97" s="1">
-        <v>29</v>
+      <c r="B97" s="3">
+        <v>300</v>
       </c>
       <c r="C97" s="1">
         <v>650</v>
@@ -4492,16 +4499,16 @@
       <c r="L97" s="1">
         <v>0</v>
       </c>
-      <c r="M97" s="1" t="s">
-        <v>26</v>
+      <c r="M97" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>516</v>
       </c>
-      <c r="B98" s="1">
-        <v>31</v>
+      <c r="B98" s="3">
+        <v>320</v>
       </c>
       <c r="C98" s="1">
         <v>700</v>
@@ -4533,16 +4540,16 @@
       <c r="L98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="1" t="s">
-        <v>25</v>
+      <c r="M98" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>517</v>
       </c>
-      <c r="B99" s="1">
-        <v>33</v>
+      <c r="B99" s="3">
+        <v>340</v>
       </c>
       <c r="C99" s="1">
         <v>750</v>
@@ -4574,16 +4581,16 @@
       <c r="L99" s="1">
         <v>0</v>
       </c>
-      <c r="M99" s="1" t="s">
-        <v>26</v>
+      <c r="M99" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>518</v>
       </c>
-      <c r="B100" s="1">
-        <v>35</v>
+      <c r="B100" s="3">
+        <v>360</v>
       </c>
       <c r="C100" s="1">
         <v>800</v>
@@ -4615,16 +4622,16 @@
       <c r="L100" s="1">
         <v>0</v>
       </c>
-      <c r="M100" s="1" t="s">
-        <v>25</v>
+      <c r="M100" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>519</v>
       </c>
-      <c r="B101" s="1">
-        <v>37</v>
+      <c r="B101" s="3">
+        <v>380</v>
       </c>
       <c r="C101" s="1">
         <v>850</v>
@@ -4656,16 +4663,16 @@
       <c r="L101" s="1">
         <v>0</v>
       </c>
-      <c r="M101" s="1" t="s">
-        <v>25</v>
+      <c r="M101" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>520</v>
       </c>
-      <c r="B102" s="1">
-        <v>39</v>
+      <c r="B102" s="3">
+        <v>400</v>
       </c>
       <c r="C102" s="1">
         <v>1000</v>
@@ -4697,8 +4704,8 @@
       <c r="L102" s="1">
         <v>0</v>
       </c>
-      <c r="M102" s="1" t="s">
-        <v>27</v>
+      <c r="M102" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/xls/strikeConfig.xlsx
+++ b/xls/strikeConfig.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="14880" yWindow="30" windowWidth="27765" windowHeight="13620"/>
   </bookViews>
@@ -225,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -267,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +297,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -613,7 +608,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
@@ -654,7 +649,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -695,7 +690,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="3">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1">
         <v>246</v>
@@ -736,7 +731,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="3">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1">
         <v>23</v>
@@ -777,7 +772,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="3">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
         <v>26</v>
@@ -818,7 +813,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="3">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1">
         <v>28</v>
@@ -859,7 +854,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="3">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1">
         <v>380</v>
@@ -900,7 +895,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="3">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1">
         <v>32</v>
@@ -941,7 +936,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="3">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1">
         <v>34</v>
@@ -982,7 +977,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="3">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1">
         <v>36</v>
@@ -1023,7 +1018,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="3">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C13" s="1">
         <v>39</v>
@@ -1064,7 +1059,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="3">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="C14" s="1">
         <v>43</v>
@@ -1105,7 +1100,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="3">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="C15" s="1">
         <v>47</v>
@@ -1146,7 +1141,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="3">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="C16" s="1">
         <v>52</v>
@@ -1187,7 +1182,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="3">
-        <v>29</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1">
         <v>56</v>
@@ -1228,7 +1223,7 @@
         <v>116</v>
       </c>
       <c r="B18" s="3">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="C18" s="1">
         <v>60</v>
@@ -1269,7 +1264,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="3">
-        <v>33</v>
+        <v>340</v>
       </c>
       <c r="C19" s="1">
         <v>65</v>
@@ -1310,7 +1305,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="3">
-        <v>35</v>
+        <v>360</v>
       </c>
       <c r="C20" s="1">
         <v>69</v>
@@ -1351,7 +1346,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="3">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="C21" s="1">
         <v>73</v>
@@ -1392,7 +1387,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="3">
-        <v>39</v>
+        <v>400</v>
       </c>
       <c r="C22" s="1">
         <v>87</v>
@@ -1433,7 +1428,7 @@
         <v>201</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>37</v>
@@ -1474,7 +1469,7 @@
         <v>202</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
         <v>50</v>
@@ -1515,7 +1510,7 @@
         <v>203</v>
       </c>
       <c r="B25" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>288</v>
@@ -1556,7 +1551,7 @@
         <v>204</v>
       </c>
       <c r="B26" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1">
         <v>69</v>
@@ -1597,7 +1592,7 @@
         <v>205</v>
       </c>
       <c r="B27" s="3">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1">
         <v>75</v>
@@ -1638,7 +1633,7 @@
         <v>206</v>
       </c>
       <c r="B28" s="3">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1">
         <v>82</v>
@@ -1679,7 +1674,7 @@
         <v>207</v>
       </c>
       <c r="B29" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1">
         <v>438</v>
@@ -1720,7 +1715,7 @@
         <v>208</v>
       </c>
       <c r="B30" s="3">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1">
         <v>94</v>
@@ -1761,7 +1756,7 @@
         <v>209</v>
       </c>
       <c r="B31" s="3">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1">
         <v>101</v>
@@ -1802,7 +1797,7 @@
         <v>210</v>
       </c>
       <c r="B32" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1">
         <v>107</v>
@@ -1843,7 +1838,7 @@
         <v>211</v>
       </c>
       <c r="B33" s="3">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1">
         <v>113</v>
@@ -1884,7 +1879,7 @@
         <v>212</v>
       </c>
       <c r="B34" s="3">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1">
         <v>126</v>
@@ -1925,7 +1920,7 @@
         <v>213</v>
       </c>
       <c r="B35" s="3">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C35" s="1">
         <v>139</v>
@@ -1966,7 +1961,7 @@
         <v>214</v>
       </c>
       <c r="B36" s="3">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="C36" s="1">
         <v>151</v>
@@ -2007,7 +2002,7 @@
         <v>215</v>
       </c>
       <c r="B37" s="3">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C37" s="1">
         <v>164</v>
@@ -2048,7 +2043,7 @@
         <v>216</v>
       </c>
       <c r="B38" s="3">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C38" s="1">
         <v>177</v>
@@ -2089,7 +2084,7 @@
         <v>217</v>
       </c>
       <c r="B39" s="3">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="C39" s="1">
         <v>189</v>
@@ -2130,7 +2125,7 @@
         <v>218</v>
       </c>
       <c r="B40" s="3">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="C40" s="1">
         <v>202</v>
@@ -2171,7 +2166,7 @@
         <v>219</v>
       </c>
       <c r="B41" s="3">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1">
         <v>215</v>
@@ -2212,7 +2207,7 @@
         <v>220</v>
       </c>
       <c r="B42" s="3">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="C42" s="1">
         <v>253</v>
@@ -2652,7 +2647,7 @@
         <v>0.03</v>
       </c>
       <c r="L52" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -2816,7 +2811,7 @@
         <v>0.05</v>
       </c>
       <c r="L56" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -3073,7 +3068,7 @@
         <v>401</v>
       </c>
       <c r="B63" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1">
         <v>107</v>
@@ -3114,7 +3109,7 @@
         <v>402</v>
       </c>
       <c r="B64" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1">
         <v>143</v>
@@ -3155,7 +3150,7 @@
         <v>403</v>
       </c>
       <c r="B65" s="3">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1">
         <v>403</v>
@@ -3196,7 +3191,7 @@
         <v>404</v>
       </c>
       <c r="B66" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C66" s="1">
         <v>196</v>
@@ -3237,7 +3232,7 @@
         <v>405</v>
       </c>
       <c r="B67" s="3">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C67" s="1">
         <v>214</v>
@@ -3278,7 +3273,7 @@
         <v>406</v>
       </c>
       <c r="B68" s="3">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C68" s="1">
         <v>232</v>
@@ -3319,7 +3314,7 @@
         <v>407</v>
       </c>
       <c r="B69" s="3">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C69" s="1">
         <v>600</v>
@@ -3360,7 +3355,7 @@
         <v>408</v>
       </c>
       <c r="B70" s="3">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C70" s="1">
         <v>268</v>
@@ -3401,7 +3396,7 @@
         <v>409</v>
       </c>
       <c r="B71" s="3">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1">
         <v>286</v>
@@ -3442,7 +3437,7 @@
         <v>410</v>
       </c>
       <c r="B72" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C72" s="1">
         <v>303</v>
@@ -3483,7 +3478,7 @@
         <v>411</v>
       </c>
       <c r="B73" s="3">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1">
         <v>321</v>
@@ -3524,7 +3519,7 @@
         <v>412</v>
       </c>
       <c r="B74" s="3">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="C74" s="1">
         <v>357</v>
@@ -3565,7 +3560,7 @@
         <v>413</v>
       </c>
       <c r="B75" s="3">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C75" s="1">
         <v>393</v>
@@ -3606,7 +3601,7 @@
         <v>414</v>
       </c>
       <c r="B76" s="3">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="C76" s="1">
         <v>429</v>
@@ -3647,7 +3642,7 @@
         <v>415</v>
       </c>
       <c r="B77" s="3">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="C77" s="1">
         <v>464</v>
@@ -3688,7 +3683,7 @@
         <v>416</v>
       </c>
       <c r="B78" s="3">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="C78" s="1">
         <v>500</v>
@@ -3729,7 +3724,7 @@
         <v>417</v>
       </c>
       <c r="B79" s="3">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="C79" s="1">
         <v>536</v>
@@ -3770,7 +3765,7 @@
         <v>418</v>
       </c>
       <c r="B80" s="3">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="C80" s="1">
         <v>572</v>
@@ -3811,7 +3806,7 @@
         <v>419</v>
       </c>
       <c r="B81" s="3">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="C81" s="1">
         <v>607</v>
@@ -3852,7 +3847,7 @@
         <v>420</v>
       </c>
       <c r="B82" s="3">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="C82" s="1">
         <v>715</v>
@@ -3893,7 +3888,7 @@
         <v>501</v>
       </c>
       <c r="B83" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1">
         <v>375</v>
@@ -3934,7 +3929,7 @@
         <v>502</v>
       </c>
       <c r="B84" s="3">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>200</v>
@@ -3975,7 +3970,7 @@
         <v>503</v>
       </c>
       <c r="B85" s="3">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1">
         <v>600</v>
@@ -4016,7 +4011,7 @@
         <v>504</v>
       </c>
       <c r="B86" s="3">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C86" s="1">
         <v>275</v>
@@ -4057,7 +4052,7 @@
         <v>505</v>
       </c>
       <c r="B87" s="3">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C87" s="1">
         <v>950</v>
@@ -4098,7 +4093,7 @@
         <v>506</v>
       </c>
       <c r="B88" s="3">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C88" s="1">
         <v>325</v>
@@ -4139,7 +4134,7 @@
         <v>507</v>
       </c>
       <c r="B89" s="3">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C89" s="1">
         <v>350</v>
@@ -4180,7 +4175,7 @@
         <v>508</v>
       </c>
       <c r="B90" s="3">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="C90" s="1">
         <v>375</v>
@@ -4221,7 +4216,7 @@
         <v>509</v>
       </c>
       <c r="B91" s="3">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="C91" s="1">
         <v>400</v>
@@ -4262,7 +4257,7 @@
         <v>510</v>
       </c>
       <c r="B92" s="3">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="C92" s="1">
         <v>425</v>
@@ -4303,7 +4298,7 @@
         <v>511</v>
       </c>
       <c r="B93" s="3">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="C93" s="1">
         <v>450</v>
@@ -4344,7 +4339,7 @@
         <v>512</v>
       </c>
       <c r="B94" s="3">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="C94" s="1">
         <v>500</v>
@@ -4385,7 +4380,7 @@
         <v>513</v>
       </c>
       <c r="B95" s="3">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="C95" s="1">
         <v>550</v>
@@ -4426,7 +4421,7 @@
         <v>514</v>
       </c>
       <c r="B96" s="3">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="C96" s="1">
         <v>600</v>
@@ -4467,7 +4462,7 @@
         <v>515</v>
       </c>
       <c r="B97" s="3">
-        <v>300</v>
+        <v>29</v>
       </c>
       <c r="C97" s="1">
         <v>650</v>
@@ -4508,7 +4503,7 @@
         <v>516</v>
       </c>
       <c r="B98" s="3">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="C98" s="1">
         <v>700</v>
@@ -4549,7 +4544,7 @@
         <v>517</v>
       </c>
       <c r="B99" s="3">
-        <v>340</v>
+        <v>33</v>
       </c>
       <c r="C99" s="1">
         <v>750</v>
@@ -4590,7 +4585,7 @@
         <v>518</v>
       </c>
       <c r="B100" s="3">
-        <v>360</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1">
         <v>800</v>
@@ -4631,7 +4626,7 @@
         <v>519</v>
       </c>
       <c r="B101" s="3">
-        <v>380</v>
+        <v>37</v>
       </c>
       <c r="C101" s="1">
         <v>850</v>
@@ -4672,7 +4667,7 @@
         <v>520</v>
       </c>
       <c r="B102" s="3">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="C102" s="1">
         <v>1000</v>
